--- a/Assets/Data/Table/Convert/ResourcePath_Path.xlsx
+++ b/Assets/Data/Table/Convert/ResourcePath_Path.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5AE8C6-4315-4BDC-87E3-CF0B332266FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2E0744-B5D2-439C-B0FB-745044B52A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Path" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,13 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curves_Common</t>
+  </si>
+  <si>
+    <t>Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,23 +643,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="65.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="85.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.09765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="65.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="85.3984375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -700,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="str" cm="1">
         <f t="array" ref="A3">IF(
   LEFT(SUBSTITUTE(INDEX(B3:F3,1,(IF(COUNTA(B3:F3)-1=0,5,COUNTA(B3:F3)-1))),"0","")&amp;"_"&amp;INDEX(B3:F3,1,COUNTA(B3:F3)),1)="_",
@@ -722,7 +729,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="str" cm="1">
         <f t="array" ref="A4">IF(
   LEFT(SUBSTITUTE(INDEX(B4:F4,1,(IF(COUNTA(B4:F4)-1=0,5,COUNTA(B4:F4)-1))),"0","")&amp;"_"&amp;INDEX(B4:F4,1,COUNTA(B4:F4)),1)="_",
@@ -741,12 +748,12 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="str">
-        <f t="shared" ref="G4:G18" si="0">"Assets"&amp;"\"&amp;IF(B4="","",B4&amp;"\")&amp;IF(C4="","",C4&amp;"\")&amp;IF(D4="","",D4&amp;"\")&amp;IF(E4="","",E4&amp;"\")&amp;IF(F4="","",F4&amp;"\")</f>
+        <f t="shared" ref="G4:G19" si="0">"Assets"&amp;"\"&amp;IF(B4="","",B4&amp;"\")&amp;IF(C4="","",C4&amp;"\")&amp;IF(D4="","",D4&amp;"\")&amp;IF(E4="","",E4&amp;"\")&amp;IF(F4="","",F4&amp;"\")</f>
         <v>Assets\Arts\Monster\</v>
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="str" cm="1">
         <f t="array" ref="A5">IF(
   LEFT(SUBSTITUTE(INDEX(B5:F5,1,(IF(COUNTA(B5:F5)-1=0,5,COUNTA(B5:F5)-1))),"0","")&amp;"_"&amp;INDEX(B5:F5,1,COUNTA(B5:F5)),1)="_",
@@ -772,7 +779,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="str" cm="1">
         <f t="array" ref="A6">IF(
   LEFT(SUBSTITUTE(INDEX(B6:F6,1,(IF(COUNTA(B6:F6)-1=0,5,COUNTA(B6:F6)-1))),"0","")&amp;"_"&amp;INDEX(B6:F6,1,COUNTA(B6:F6)),1)="_",
@@ -798,7 +805,7 @@
       </c>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="str" cm="1">
         <f t="array" ref="A7">IF(
   LEFT(SUBSTITUTE(INDEX(B7:F7,1,(IF(COUNTA(B7:F7)-1=0,5,COUNTA(B7:F7)-1))),"0","")&amp;"_"&amp;INDEX(B7:F7,1,COUNTA(B7:F7)),1)="_",
@@ -822,7 +829,7 @@
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="str" cm="1">
         <f t="array" ref="A8">IF(
   LEFT(SUBSTITUTE(INDEX(B8:F8,1,(IF(COUNTA(B8:F8)-1=0,5,COUNTA(B8:F8)-1))),"0","")&amp;"_"&amp;INDEX(B8:F8,1,COUNTA(B8:F8)),1)="_",
@@ -844,7 +851,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="str" cm="1">
         <f t="array" ref="A9">IF(
   LEFT(SUBSTITUTE(INDEX(B9:F9,1,(IF(COUNTA(B9:F9)-1=0,5,COUNTA(B9:F9)-1))),"0","")&amp;"_"&amp;INDEX(B9:F9,1,COUNTA(B9:F9)),1)="_",
@@ -866,7 +873,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="str" cm="1">
         <f t="array" ref="A10">IF(
   LEFT(SUBSTITUTE(INDEX(B10:F10,1,(IF(COUNTA(B10:F10)-1=0,5,COUNTA(B10:F10)-1))),"0","")&amp;"_"&amp;INDEX(B10:F10,1,COUNTA(B10:F10)),1)="_",
@@ -888,7 +895,7 @@
       </c>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="str" cm="1">
         <f t="array" ref="A11">IF(
   LEFT(SUBSTITUTE(INDEX(B11:F11,1,(IF(COUNTA(B11:F11)-1=0,5,COUNTA(B11:F11)-1))),"0","")&amp;"_"&amp;INDEX(B11:F11,1,COUNTA(B11:F11)),1)="_",
@@ -910,7 +917,7 @@
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="str" cm="1">
         <f t="array" ref="A12">IF(
   LEFT(SUBSTITUTE(INDEX(B12:F12,1,(IF(COUNTA(B12:F12)-1=0,5,COUNTA(B12:F12)-1))),"0","")&amp;"_"&amp;INDEX(B12:F12,1,COUNTA(B12:F12)),1)="_",
@@ -932,7 +939,7 @@
       </c>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="str" cm="1">
         <f t="array" ref="A13">IF(
   LEFT(SUBSTITUTE(INDEX(B13:F13,1,(IF(COUNTA(B13:F13)-1=0,5,COUNTA(B13:F13)-1))),"0","")&amp;"_"&amp;INDEX(B13:F13,1,COUNTA(B13:F13)),1)="_",
@@ -954,7 +961,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="17" t="str" cm="1">
         <f t="array" ref="A14">IF(
   LEFT(SUBSTITUTE(INDEX(B14:F14,1,(IF(COUNTA(B14:F14)-1=0,5,COUNTA(B14:F14)-1))),"0","")&amp;"_"&amp;INDEX(B14:F14,1,COUNTA(B14:F14)),1)="_",
@@ -976,7 +983,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="str" cm="1">
         <f t="array" ref="A15">IF(
   LEFT(SUBSTITUTE(INDEX(B15:F15,1,(IF(COUNTA(B15:F15)-1=0,5,COUNTA(B15:F15)-1))),"0","")&amp;"_"&amp;INDEX(B15:F15,1,COUNTA(B15:F15)),1)="_",
@@ -998,7 +1005,7 @@
       </c>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="str" cm="1">
         <f t="array" ref="A16">IF(
   LEFT(SUBSTITUTE(INDEX(B16:F16,1,(IF(COUNTA(B16:F16)-1=0,5,COUNTA(B16:F16)-1))),"0","")&amp;"_"&amp;INDEX(B16:F16,1,COUNTA(B16:F16)),1)="_",
@@ -1018,7 +1025,7 @@
         <v>Assets\Curves\Monster\</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="str" cm="1">
         <f t="array" ref="A17">IF(
   LEFT(SUBSTITUTE(INDEX(B17:F17,1,(IF(COUNTA(B17:F17)-1=0,5,COUNTA(B17:F17)-1))),"0","")&amp;"_"&amp;INDEX(B17:F17,1,COUNTA(B17:F17)),1)="_",
@@ -1038,7 +1045,7 @@
         <v>Assets\Curves\Projectile\</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="str" cm="1">
         <f t="array" ref="A18">IF(
   LEFT(SUBSTITUTE(INDEX(B18:F18,1,(IF(COUNTA(B18:F18)-1=0,5,COUNTA(B18:F18)-1))),"0","")&amp;"_"&amp;INDEX(B18:F18,1,COUNTA(B18:F18)),1)="_",
@@ -1056,6 +1063,21 @@
       <c r="G18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Assets\Curves\Player\</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Assets\Curves\Common\</v>
       </c>
     </row>
   </sheetData>
